--- a/biology/Médecine/Thomas_Rabe/Thomas_Rabe.xlsx
+++ b/biology/Médecine/Thomas_Rabe/Thomas_Rabe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas N. Rabe, né le 18 février 1951 à Heidelberg, est professeur de gynécologie et obstétrique au Centre hospitalier universitaire de Heidelberg ainsi qu'auteur de plusieurs publications scientifiques et livres spécialisés.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Rabe a obtenu son diplôme de médecine à Heidelberg.
 Depuis 1983, il est médecin spécialisé en gynécologie et obstétrique. 
@@ -519,8 +533,8 @@
 Après son poste de professeur de gynécologie et d'obstétrique en 1991, il est devenu le médecin traitant à l'hôpital universitaire et au département de gynécologie, endocrinologie et des problèmes de fertilité.
 Entre 1995 et 1999 il a été responsable des activités scientifiques des centres collaborateurs de l'OMS (Genf) à la clinique gynécologique universitaire. Par ailleurs Rabe appartient à la rédaction de plusieurs revues spécialisées nationales et internationales.
 Thomas Rabe est le petit-fils de John Rabe et s'est engagé à travailler à travers le passé difficile entre la Chine et le Japon (causé entre autres par la seconde guerre sino-japonaise et ses conséquences), qui pèse sur les relations bi-nationales des pays jusqu'à aujourd'hui.
-Avec l'aide de sa famille, Thomas Rabe a lancé l'association enregistrée John Rabe Communication Centre[1], qui est dédiée à poursuivre la vision de la paix de son grand-père John Rabe et qui a l'objectif de créer une base pour la compréhension internationale, en particulier entre la Chine et le Japon[2].
-Thomas Rabe s'engage pour un partenariat entre la ville de Nanjing/Chine, et Hiroshima/Japon[3].
+Avec l'aide de sa famille, Thomas Rabe a lancé l'association enregistrée John Rabe Communication Centre, qui est dédiée à poursuivre la vision de la paix de son grand-père John Rabe et qui a l'objectif de créer une base pour la compréhension internationale, en particulier entre la Chine et le Japon.
+Thomas Rabe s'engage pour un partenariat entre la ville de Nanjing/Chine, et Hiroshima/Japon.
 Chaque année depuis 2009 il attribue le Prix John Rabe, en collaboration avec le Service autrichien de la paix à Nanjing. L'acteur japonais Teruyuki Kagawa a été le premier de recevoir ce prix.
 Parmi ses contacts internationaux pour les cliniques et les hôpitaux, Thomas Rabe est également membre du Conseil international au service de l'Autriche à l'étranger.
 </t>
@@ -551,7 +565,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1996 : doctorat honorifique de l'Université Semmelweis, Budapest, Hongrie ;
 1997 : doctorat honorifique de l'Université de médecine et pharmacie Victor Babeş, Timișoara, Roumanie ;
@@ -584,7 +600,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rabe T, Strowitzki T, Diedrich K (eds.) (2000). Manual on Assisted Reproduction. 2d updated Edition. Springer Verlag Berlin, Heidelberg, New York.
 Rabe T, Runnebaum, Benno (1999) Fertility control - update and trends. Springer, Heidelberg.  (ISBN 3-540-64763-5)  (ISBN 978-3-540-64763-8)
